--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2427,28 +2427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.0084315734957</v>
+        <v>260.5811170458011</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.656998048811</v>
+        <v>356.5385803696013</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.0581547263592</v>
+        <v>322.5110386641662</v>
       </c>
       <c r="AD2" t="n">
-        <v>219008.4315734957</v>
+        <v>260581.1170458011</v>
       </c>
       <c r="AE2" t="n">
-        <v>299656.998048811</v>
+        <v>356538.5803696013</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.532647027527239e-06</v>
+        <v>4.281565460358987e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.001543209876543</v>
       </c>
       <c r="AH2" t="n">
-        <v>271058.1547263592</v>
+        <v>322511.0386641662</v>
       </c>
     </row>
     <row r="3">
@@ -2533,28 +2533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.3078642474032</v>
+        <v>167.5513168611453</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.5024333417753</v>
+        <v>229.2511035717251</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.702902861498</v>
+        <v>207.3717000028504</v>
       </c>
       <c r="AD3" t="n">
-        <v>136307.8642474033</v>
+        <v>167551.3168611453</v>
       </c>
       <c r="AE3" t="n">
-        <v>186502.4333417754</v>
+        <v>229251.1035717251</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.435018071550402e-06</v>
+        <v>5.807068482503316e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.89891975308642</v>
       </c>
       <c r="AH3" t="n">
-        <v>168702.902861498</v>
+        <v>207371.7000028504</v>
       </c>
     </row>
     <row r="4">
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.161284865477</v>
+        <v>155.2341452786268</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.8829475621696</v>
+        <v>212.3982060172725</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.6695574790977</v>
+        <v>192.1272193377991</v>
       </c>
       <c r="AD4" t="n">
-        <v>124161.284865477</v>
+        <v>155234.1452786268</v>
       </c>
       <c r="AE4" t="n">
-        <v>169882.9475621696</v>
+        <v>212398.2060172725</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.770768163765515e-06</v>
+        <v>6.374670672037054e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.374228395061729</v>
       </c>
       <c r="AH4" t="n">
-        <v>153669.5574790977</v>
+        <v>192127.2193377991</v>
       </c>
     </row>
     <row r="5">
@@ -2745,28 +2745,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>117.0688661135243</v>
+        <v>137.8979240312367</v>
       </c>
       <c r="AB5" t="n">
-        <v>160.1787873303205</v>
+        <v>188.6780232865021</v>
       </c>
       <c r="AC5" t="n">
-        <v>144.8915486798988</v>
+        <v>170.6708575553603</v>
       </c>
       <c r="AD5" t="n">
-        <v>117068.8661135243</v>
+        <v>137897.9240312367</v>
       </c>
       <c r="AE5" t="n">
-        <v>160178.7873303205</v>
+        <v>188678.0232865021</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.968657471988032e-06</v>
+        <v>6.709212366102927e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.104166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>144891.5486798988</v>
+        <v>170670.8575553603</v>
       </c>
     </row>
     <row r="6">
@@ -2851,28 +2851,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>101.9452669832298</v>
+        <v>133.1033787424003</v>
       </c>
       <c r="AB6" t="n">
-        <v>139.4860117941574</v>
+        <v>182.1179149019095</v>
       </c>
       <c r="AC6" t="n">
-        <v>126.1736625984077</v>
+        <v>164.7368367078213</v>
       </c>
       <c r="AD6" t="n">
-        <v>101945.2669832298</v>
+        <v>133103.3787424003</v>
       </c>
       <c r="AE6" t="n">
-        <v>139486.0117941574</v>
+        <v>182117.9149019095</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.06838990200782e-06</v>
+        <v>6.877814987395679e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.980709876543211</v>
       </c>
       <c r="AH6" t="n">
-        <v>126173.6625984077</v>
+        <v>164736.8367078213</v>
       </c>
     </row>
     <row r="7">
@@ -2957,28 +2957,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>101.2529872910727</v>
+        <v>132.4110990502431</v>
       </c>
       <c r="AB7" t="n">
-        <v>138.538804178124</v>
+        <v>181.1707072858761</v>
       </c>
       <c r="AC7" t="n">
-        <v>125.3168551478339</v>
+        <v>163.8800292572475</v>
       </c>
       <c r="AD7" t="n">
-        <v>101252.9872910727</v>
+        <v>132411.0990502431</v>
       </c>
       <c r="AE7" t="n">
-        <v>138538.804178124</v>
+        <v>181170.7072858761</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.087926744539341e-06</v>
+        <v>6.910842989039126e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.957561728395062</v>
       </c>
       <c r="AH7" t="n">
-        <v>125316.8551478339</v>
+        <v>163880.0292572475</v>
       </c>
     </row>
   </sheetData>
@@ -3254,28 +3254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.0211669151904</v>
+        <v>203.2929599553215</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.7351937284193</v>
+        <v>278.15439646316</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.1415190989786</v>
+        <v>251.607731256945</v>
       </c>
       <c r="AD2" t="n">
-        <v>173021.1669151904</v>
+        <v>203292.9599553215</v>
       </c>
       <c r="AE2" t="n">
-        <v>236735.1937284193</v>
+        <v>278154.3964631601</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.978834552398167e-06</v>
+        <v>5.158718890623075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.037037037037036</v>
       </c>
       <c r="AH2" t="n">
-        <v>214141.5190989786</v>
+        <v>251607.731256945</v>
       </c>
     </row>
     <row r="3">
@@ -3360,28 +3360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.7557113850189</v>
+        <v>148.8568227160067</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.4868034491395</v>
+        <v>203.6724719394851</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.9792909796594</v>
+        <v>184.2342570737482</v>
       </c>
       <c r="AD3" t="n">
-        <v>118755.7113850189</v>
+        <v>148856.8227160067</v>
       </c>
       <c r="AE3" t="n">
-        <v>162486.8034491395</v>
+        <v>203672.4719394851</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.831047775125513e-06</v>
+        <v>6.63457408620048e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.47067901234568</v>
       </c>
       <c r="AH3" t="n">
-        <v>146979.2909796594</v>
+        <v>184234.2570737482</v>
       </c>
     </row>
     <row r="4">
@@ -3466,28 +3466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.3502397481947</v>
+        <v>129.5314649444657</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.6178222155194</v>
+        <v>177.2306648618627</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.3385072532433</v>
+        <v>160.3160189522964</v>
       </c>
       <c r="AD4" t="n">
-        <v>109350.2397481947</v>
+        <v>129531.4649444657</v>
       </c>
       <c r="AE4" t="n">
-        <v>149617.8222155194</v>
+        <v>177230.6648618627</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.129588617844292e-06</v>
+        <v>7.151584432987286e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.077160493827161</v>
       </c>
       <c r="AH4" t="n">
-        <v>135338.5072532433</v>
+        <v>160316.0189522964</v>
       </c>
     </row>
     <row r="5">
@@ -3572,28 +3572,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>94.66524380920028</v>
+        <v>124.8516064862086</v>
       </c>
       <c r="AB5" t="n">
-        <v>129.5251629154999</v>
+        <v>170.8274760584947</v>
       </c>
       <c r="AC5" t="n">
-        <v>117.1634631565868</v>
+        <v>154.5239415013879</v>
       </c>
       <c r="AD5" t="n">
-        <v>94665.24380920027</v>
+        <v>124851.6064862086</v>
       </c>
       <c r="AE5" t="n">
-        <v>129525.1629154999</v>
+        <v>170827.4760584946</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.26476052260941e-06</v>
+        <v>7.385673922123878e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.915123456790123</v>
       </c>
       <c r="AH5" t="n">
-        <v>117163.4631565868</v>
+        <v>154523.9415013879</v>
       </c>
     </row>
     <row r="6">
@@ -3678,28 +3678,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>94.94634743768781</v>
+        <v>125.1327101146962</v>
       </c>
       <c r="AB6" t="n">
-        <v>129.9097813014132</v>
+        <v>171.212094444408</v>
       </c>
       <c r="AC6" t="n">
-        <v>117.511374103564</v>
+        <v>154.8718524483651</v>
       </c>
       <c r="AD6" t="n">
-        <v>94946.3474376878</v>
+        <v>125132.7101146962</v>
       </c>
       <c r="AE6" t="n">
-        <v>129909.7813014132</v>
+        <v>171212.094444408</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.264380215803399e-06</v>
+        <v>7.385015310217144e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.915123456790123</v>
       </c>
       <c r="AH6" t="n">
-        <v>117511.374103564</v>
+        <v>154871.8524483651</v>
       </c>
     </row>
   </sheetData>
@@ -3975,28 +3975,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.2404027614207</v>
+        <v>109.4712234954022</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.8391443006068</v>
+        <v>149.7833575158749</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.9246715814293</v>
+        <v>135.4882440968632</v>
       </c>
       <c r="AD2" t="n">
-        <v>91240.4027614207</v>
+        <v>109471.2234954022</v>
       </c>
       <c r="AE2" t="n">
-        <v>124839.1443006068</v>
+        <v>149783.3575158749</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.478647999630032e-06</v>
+        <v>8.474565774307006e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.223765432098765</v>
       </c>
       <c r="AH2" t="n">
-        <v>112924.6715814293</v>
+        <v>135488.2440968632</v>
       </c>
     </row>
     <row r="3">
@@ -4081,28 +4081,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.39181155134553</v>
+        <v>106.6226322853271</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.9415761360092</v>
+        <v>145.8857893512773</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.3990818521883</v>
+        <v>131.9626543676223</v>
       </c>
       <c r="AD3" t="n">
-        <v>88391.81155134553</v>
+        <v>106622.6322853271</v>
       </c>
       <c r="AE3" t="n">
-        <v>120941.5761360092</v>
+        <v>145885.7893512773</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.634633181597763e-06</v>
+        <v>8.769723304997511e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.046296296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>109399.0818521883</v>
+        <v>131962.6543676222</v>
       </c>
     </row>
   </sheetData>
@@ -4378,28 +4378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.8060234877525</v>
+        <v>139.2959158246694</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.6096897526272</v>
+        <v>190.5908173333209</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.1402737482138</v>
+        <v>172.4010972229747</v>
       </c>
       <c r="AD2" t="n">
-        <v>110806.0234877524</v>
+        <v>139295.9158246694</v>
       </c>
       <c r="AE2" t="n">
-        <v>151609.6897526272</v>
+        <v>190590.8173333209</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.850937456175784e-06</v>
+        <v>7.015571718657156e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.810185185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>137140.2737482138</v>
+        <v>172401.0972229747</v>
       </c>
     </row>
     <row r="3">
@@ -4484,28 +4484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.58088459078196</v>
+        <v>112.9854360731273</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.727297742337</v>
+        <v>154.5916582008331</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.6824468701208</v>
+        <v>139.8376473129429</v>
       </c>
       <c r="AD3" t="n">
-        <v>84580.88459078196</v>
+        <v>112985.4360731273</v>
       </c>
       <c r="AE3" t="n">
-        <v>115727.297742337</v>
+        <v>154591.658200833</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.525789611179043e-06</v>
+        <v>8.245005784204748e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.94212962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>104682.4468701208</v>
+        <v>139837.6473129429</v>
       </c>
     </row>
     <row r="4">
@@ -4590,28 +4590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.70615040688082</v>
+        <v>113.1107018892262</v>
       </c>
       <c r="AB4" t="n">
-        <v>115.8986919582612</v>
+        <v>154.7630524167572</v>
       </c>
       <c r="AC4" t="n">
-        <v>104.8374834626305</v>
+        <v>139.9926839054526</v>
       </c>
       <c r="AD4" t="n">
-        <v>84706.15040688083</v>
+        <v>113110.7018892262</v>
       </c>
       <c r="AE4" t="n">
-        <v>115898.6919582612</v>
+        <v>154763.0524167572</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.526021598856941e-06</v>
+        <v>8.245428415372005e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.94212962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>104837.4834626305</v>
+        <v>139992.6839054526</v>
       </c>
     </row>
   </sheetData>
@@ -4887,28 +4887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.05197470779993</v>
+        <v>101.6573641504854</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.0036199065841</v>
+        <v>139.0920904370201</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.0278358313237</v>
+        <v>125.8173365427233</v>
       </c>
       <c r="AD2" t="n">
-        <v>84051.97470779993</v>
+        <v>101657.3641504854</v>
       </c>
       <c r="AE2" t="n">
-        <v>115003.6199065841</v>
+        <v>139092.0904370201</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.649689828829357e-06</v>
+        <v>9.111893932268173e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.223765432098765</v>
       </c>
       <c r="AH2" t="n">
-        <v>104027.8358313237</v>
+        <v>125817.3365427233</v>
       </c>
     </row>
   </sheetData>
@@ -5184,28 +5184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.6737739986098</v>
+        <v>211.2009829772087</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.2058283491456</v>
+        <v>288.9745024390538</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.6128510471341</v>
+        <v>261.3951815046171</v>
       </c>
       <c r="AD2" t="n">
-        <v>180673.7739986098</v>
+        <v>211200.9829772087</v>
       </c>
       <c r="AE2" t="n">
-        <v>247205.8283491456</v>
+        <v>288974.5024390538</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.868352354567139e-06</v>
+        <v>4.934946321916808e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.241512345679013</v>
       </c>
       <c r="AH2" t="n">
-        <v>223612.8510471341</v>
+        <v>261395.1815046171</v>
       </c>
     </row>
     <row r="3">
@@ -5290,28 +5290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.6705706571233</v>
+        <v>153.1976901271711</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.8432866166317</v>
+        <v>209.6118382369916</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.8245589115192</v>
+        <v>189.6067785877756</v>
       </c>
       <c r="AD3" t="n">
-        <v>122670.5706571233</v>
+        <v>153197.6901271711</v>
       </c>
       <c r="AE3" t="n">
-        <v>167843.2866166317</v>
+        <v>209611.8382369916</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.735846688328181e-06</v>
+        <v>6.427454020582642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.559413580246914</v>
       </c>
       <c r="AH3" t="n">
-        <v>151824.5589115192</v>
+        <v>189606.7785877756</v>
       </c>
     </row>
     <row r="4">
@@ -5396,28 +5396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.8167542246934</v>
+        <v>133.1682567132763</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.3608602540879</v>
+        <v>182.2066838038762</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.6288763983081</v>
+        <v>164.8171336303723</v>
       </c>
       <c r="AD4" t="n">
-        <v>112816.7542246934</v>
+        <v>133168.2567132764</v>
       </c>
       <c r="AE4" t="n">
-        <v>154360.8602540879</v>
+        <v>182206.6838038763</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.045166136407699e-06</v>
+        <v>6.959632318052554e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.135030864197531</v>
       </c>
       <c r="AH4" t="n">
-        <v>139628.8763983081</v>
+        <v>164817.1336303723</v>
       </c>
     </row>
     <row r="5">
@@ -5502,28 +5502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>96.68098661835599</v>
+        <v>127.1227652338322</v>
       </c>
       <c r="AB5" t="n">
-        <v>132.2831911552819</v>
+        <v>173.9349756534442</v>
       </c>
       <c r="AC5" t="n">
-        <v>119.6582690520819</v>
+        <v>157.3348656963995</v>
       </c>
       <c r="AD5" t="n">
-        <v>96680.98661835599</v>
+        <v>127122.7652338322</v>
       </c>
       <c r="AE5" t="n">
-        <v>132283.1911552819</v>
+        <v>173934.9756534442</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.204806199689816e-06</v>
+        <v>7.234290046859914e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.938271604938272</v>
       </c>
       <c r="AH5" t="n">
-        <v>119658.2690520819</v>
+        <v>157334.8656963995</v>
       </c>
     </row>
     <row r="6">
@@ -5608,28 +5608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>96.31038014345594</v>
+        <v>126.7521587589322</v>
       </c>
       <c r="AB6" t="n">
-        <v>131.7761110263201</v>
+        <v>173.4278955244824</v>
       </c>
       <c r="AC6" t="n">
-        <v>119.1995839389366</v>
+        <v>156.8761805832542</v>
       </c>
       <c r="AD6" t="n">
-        <v>96310.38014345594</v>
+        <v>126752.1587589322</v>
       </c>
       <c r="AE6" t="n">
-        <v>131776.1110263201</v>
+        <v>173427.8955244824</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.224135300100704e-06</v>
+        <v>7.267545400870655e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.918981481481482</v>
       </c>
       <c r="AH6" t="n">
-        <v>119199.5839389366</v>
+        <v>156876.1805832542</v>
       </c>
     </row>
   </sheetData>
@@ -5905,28 +5905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.0316762067455</v>
+        <v>107.7135104549168</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.2393583681634</v>
+        <v>147.3783769890575</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.5273915344636</v>
+        <v>133.3127915361131</v>
       </c>
       <c r="AD2" t="n">
-        <v>82031.6762067455</v>
+        <v>107713.5104549168</v>
       </c>
       <c r="AE2" t="n">
-        <v>112239.3583681634</v>
+        <v>147378.3769890575</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.593389526055615e-06</v>
+        <v>9.208185977201305e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.412808641975309</v>
       </c>
       <c r="AH2" t="n">
-        <v>101527.3915344636</v>
+        <v>133312.7915361131</v>
       </c>
     </row>
   </sheetData>
@@ -6202,28 +6202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.9661813024339</v>
+        <v>169.3236851893577</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.5079041300236</v>
+        <v>231.6761361097563</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.2306585429398</v>
+        <v>209.5652908390072</v>
       </c>
       <c r="AD2" t="n">
-        <v>139966.1813024339</v>
+        <v>169323.6851893577</v>
       </c>
       <c r="AE2" t="n">
-        <v>191507.9041300236</v>
+        <v>231676.1361097563</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.390594338461484e-06</v>
+        <v>6.004994517969302e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.369598765432099</v>
       </c>
       <c r="AH2" t="n">
-        <v>173230.6585429398</v>
+        <v>209565.2908390072</v>
       </c>
     </row>
     <row r="3">
@@ -6308,28 +6308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.4897527655615</v>
+        <v>126.1183457627422</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.7039777301034</v>
+        <v>172.5606846212397</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.7981945923989</v>
+        <v>156.0917350714786</v>
       </c>
       <c r="AD3" t="n">
-        <v>106489.7527655615</v>
+        <v>126118.3457627421</v>
       </c>
       <c r="AE3" t="n">
-        <v>145703.9777301034</v>
+        <v>172560.6846212397</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.158532721367003e-06</v>
+        <v>7.365070457215501e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.192901234567902</v>
       </c>
       <c r="AH3" t="n">
-        <v>131798.1945923989</v>
+        <v>156091.7350714786</v>
       </c>
     </row>
     <row r="4">
@@ -6414,28 +6414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.62957659885558</v>
+        <v>118.9869909772284</v>
       </c>
       <c r="AB4" t="n">
-        <v>122.6351408803516</v>
+        <v>162.8032503905359</v>
       </c>
       <c r="AC4" t="n">
-        <v>110.9310151542642</v>
+        <v>147.265536669105</v>
       </c>
       <c r="AD4" t="n">
-        <v>89629.57659885558</v>
+        <v>118986.9909772284</v>
       </c>
       <c r="AE4" t="n">
-        <v>122635.1408803516</v>
+        <v>162803.2503905359</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.400574092289335e-06</v>
+        <v>7.793743710462865e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.907407407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>110931.0151542642</v>
+        <v>147265.5366691051</v>
       </c>
     </row>
     <row r="5">
@@ -6520,28 +6520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>89.95818634949993</v>
+        <v>119.3156007278727</v>
       </c>
       <c r="AB5" t="n">
-        <v>123.084759238422</v>
+        <v>163.2528687486063</v>
       </c>
       <c r="AC5" t="n">
-        <v>111.3377225672838</v>
+        <v>147.6722440821247</v>
       </c>
       <c r="AD5" t="n">
-        <v>89958.18634949993</v>
+        <v>119315.6007278727</v>
       </c>
       <c r="AE5" t="n">
-        <v>123084.759238422</v>
+        <v>163252.8687486063</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.3945286556428e-06</v>
+        <v>7.783036792944196e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.915123456790123</v>
       </c>
       <c r="AH5" t="n">
-        <v>111337.7225672838</v>
+        <v>147672.2440821247</v>
       </c>
     </row>
   </sheetData>
@@ -6817,28 +6817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.9635854085559</v>
+        <v>194.8870113292863</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.0280140667826</v>
+        <v>266.653006708744</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.7923579874962</v>
+        <v>241.2040179983848</v>
       </c>
       <c r="AD2" t="n">
-        <v>154963.5854085559</v>
+        <v>194887.0113292863</v>
       </c>
       <c r="AE2" t="n">
-        <v>212028.0140667825</v>
+        <v>266653.006708744</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.107167087328725e-06</v>
+        <v>5.418628084943424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.809413580246914</v>
       </c>
       <c r="AH2" t="n">
-        <v>191792.3579874962</v>
+        <v>241204.0179983848</v>
       </c>
     </row>
     <row r="3">
@@ -6923,28 +6923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.7629990924121</v>
+        <v>144.5989819732964</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.023798344363</v>
+        <v>197.8467063926355</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.0376674147052</v>
+        <v>178.9644944141748</v>
       </c>
       <c r="AD3" t="n">
-        <v>114762.9990924121</v>
+        <v>144598.9819732964</v>
       </c>
       <c r="AE3" t="n">
-        <v>157023.798344363</v>
+        <v>197846.7063926355</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.928479765081848e-06</v>
+        <v>6.850925678575318e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.385802469135803</v>
       </c>
       <c r="AH3" t="n">
-        <v>142037.6674147052</v>
+        <v>178964.4944141748</v>
       </c>
     </row>
     <row r="4">
@@ -7029,28 +7029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>95.26675818896567</v>
+        <v>125.1879924158706</v>
       </c>
       <c r="AB4" t="n">
-        <v>130.3481814268361</v>
+        <v>171.2877341277577</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.9079339363151</v>
+        <v>154.9402731864969</v>
       </c>
       <c r="AD4" t="n">
-        <v>95266.75818896567</v>
+        <v>125187.9924158706</v>
       </c>
       <c r="AE4" t="n">
-        <v>130348.1814268361</v>
+        <v>171287.7341277578</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.240660851009778e-06</v>
+        <v>7.395342233029592e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.988425925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>117907.9339363151</v>
+        <v>154940.2731864969</v>
       </c>
     </row>
     <row r="5">
@@ -7135,28 +7135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>92.7440046847728</v>
+        <v>122.6652389116777</v>
       </c>
       <c r="AB5" t="n">
-        <v>126.8964387863714</v>
+        <v>167.8359914872931</v>
       </c>
       <c r="AC5" t="n">
-        <v>114.785620768904</v>
+        <v>151.8179600190859</v>
       </c>
       <c r="AD5" t="n">
-        <v>92744.00468477281</v>
+        <v>122665.2389116777</v>
       </c>
       <c r="AE5" t="n">
-        <v>126896.4387863714</v>
+        <v>167835.9914872931</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.320735409241469e-06</v>
+        <v>7.534985270538946e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>114785.620768904</v>
+        <v>151817.9600190859</v>
       </c>
     </row>
   </sheetData>
@@ -7432,28 +7432,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.9823496826241</v>
+        <v>240.3320509780209</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.2564293173548</v>
+        <v>328.8329148497626</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.2726578176847</v>
+        <v>297.4495629764936</v>
       </c>
       <c r="AD2" t="n">
-        <v>198982.3496826241</v>
+        <v>240332.0509780209</v>
       </c>
       <c r="AE2" t="n">
-        <v>272256.4293173548</v>
+        <v>328832.9148497626</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.636694313362991e-06</v>
+        <v>4.482205582166087e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.746913580246913</v>
       </c>
       <c r="AH2" t="n">
-        <v>246272.6578176847</v>
+        <v>297449.5629764936</v>
       </c>
     </row>
     <row r="3">
@@ -7538,28 +7538,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.829026157329</v>
+        <v>162.8413021288767</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.3742894745477</v>
+        <v>222.8066536238536</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.1596204440527</v>
+        <v>201.5422993131594</v>
       </c>
       <c r="AD3" t="n">
-        <v>131829.026157329</v>
+        <v>162841.3021288767</v>
       </c>
       <c r="AE3" t="n">
-        <v>180374.2894745477</v>
+        <v>222806.6536238536</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.527591749458033e-06</v>
+        <v>5.996672178071744e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.790895061728396</v>
       </c>
       <c r="AH3" t="n">
-        <v>163159.6204440527</v>
+        <v>201542.2993131594</v>
       </c>
     </row>
     <row r="4">
@@ -7644,28 +7644,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.0828162565184</v>
+        <v>140.7577564127679</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.302606882059</v>
+        <v>192.5909721178113</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.6217966814378</v>
+        <v>174.2103600420688</v>
       </c>
       <c r="AD4" t="n">
-        <v>120082.8162565184</v>
+        <v>140757.7564127679</v>
       </c>
       <c r="AE4" t="n">
-        <v>164302.606882059</v>
+        <v>192590.9721178113</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.87015502172442e-06</v>
+        <v>6.579007037071418e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>148621.7966814378</v>
+        <v>174210.3600420688</v>
       </c>
     </row>
     <row r="5">
@@ -7750,28 +7750,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.6373333301953</v>
+        <v>134.3122734864448</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.4836127876302</v>
+        <v>183.7719780233825</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.6444750058425</v>
+        <v>166.2330383664736</v>
       </c>
       <c r="AD5" t="n">
-        <v>113637.3333301953</v>
+        <v>134312.2734864448</v>
       </c>
       <c r="AE5" t="n">
-        <v>155483.6127876302</v>
+        <v>183771.9780233825</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.04839803481682e-06</v>
+        <v>6.882008346027052e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.046296296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>140644.4750058425</v>
+        <v>166233.0383664736</v>
       </c>
     </row>
     <row r="6">
@@ -7856,28 +7856,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.44618131323548</v>
+        <v>130.3731164302115</v>
       </c>
       <c r="AB6" t="n">
-        <v>136.0666525285943</v>
+        <v>178.3822495557025</v>
       </c>
       <c r="AC6" t="n">
-        <v>123.0806421820479</v>
+        <v>161.3576980192158</v>
       </c>
       <c r="AD6" t="n">
-        <v>99446.18131323549</v>
+        <v>130373.1164302115</v>
       </c>
       <c r="AE6" t="n">
-        <v>136066.6525285943</v>
+        <v>178382.2495557025</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.127011303139426e-06</v>
+        <v>7.015645691972734e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.949845679012346</v>
       </c>
       <c r="AH6" t="n">
-        <v>123080.6421820479</v>
+        <v>161357.6980192158</v>
       </c>
     </row>
     <row r="7">
@@ -7962,28 +7962,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>99.31744922887604</v>
+        <v>130.2443843458521</v>
       </c>
       <c r="AB7" t="n">
-        <v>135.8905156115151</v>
+        <v>178.2061126386233</v>
       </c>
       <c r="AC7" t="n">
-        <v>122.921315525125</v>
+        <v>161.1983713622929</v>
       </c>
       <c r="AD7" t="n">
-        <v>99317.44922887604</v>
+        <v>130244.3843458521</v>
       </c>
       <c r="AE7" t="n">
-        <v>135890.5156115151</v>
+        <v>178206.1126386233</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.144004474271788e-06</v>
+        <v>7.044532956651903e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.926697530864198</v>
       </c>
       <c r="AH7" t="n">
-        <v>122921.315525125</v>
+        <v>161198.3713622929</v>
       </c>
     </row>
   </sheetData>
@@ -8259,28 +8259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.3766095964275</v>
+        <v>154.6385133318997</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.231611423427</v>
+        <v>211.5832361103338</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.0347699121892</v>
+        <v>191.390029014961</v>
       </c>
       <c r="AD2" t="n">
-        <v>116376.6095964275</v>
+        <v>154638.5133318997</v>
       </c>
       <c r="AE2" t="n">
-        <v>159231.611423427</v>
+        <v>211583.2361103338</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.709618673912298e-06</v>
+        <v>6.689320313013443e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.95679012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>144034.7699121892</v>
+        <v>191390.029014961</v>
       </c>
     </row>
     <row r="3">
@@ -8365,28 +8365,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.42709190723863</v>
+        <v>116.6434741380974</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.3040453273728</v>
+        <v>159.5967472625723</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.5816943347666</v>
+        <v>144.3650576993179</v>
       </c>
       <c r="AD3" t="n">
-        <v>97427.09190723863</v>
+        <v>116643.4741380974</v>
       </c>
       <c r="AE3" t="n">
-        <v>133304.0453273728</v>
+        <v>159596.7472625723</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.420467128987706e-06</v>
+        <v>7.971148292651916e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.000000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>120581.6943347666</v>
+        <v>144365.0576993179</v>
       </c>
     </row>
     <row r="4">
@@ -8471,28 +8471,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.37397053209314</v>
+        <v>115.1130687609831</v>
       </c>
       <c r="AB4" t="n">
-        <v>118.1806770326065</v>
+        <v>157.5027791088854</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.9016790842672</v>
+        <v>142.4709349273155</v>
       </c>
       <c r="AD4" t="n">
-        <v>86373.97053209314</v>
+        <v>115113.0687609831</v>
       </c>
       <c r="AE4" t="n">
-        <v>118180.6770326065</v>
+        <v>157502.7791088854</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.485698871682751e-06</v>
+        <v>8.088776561166921e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.926697530864198</v>
       </c>
       <c r="AH4" t="n">
-        <v>106901.6790842672</v>
+        <v>142470.9349273155</v>
       </c>
     </row>
   </sheetData>
@@ -8768,28 +8768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.65339718820609</v>
+        <v>125.2379664860423</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.6136861966768</v>
+        <v>171.356110855267</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.8617835140879</v>
+        <v>155.0021241351</v>
       </c>
       <c r="AD2" t="n">
-        <v>97653.39718820609</v>
+        <v>125237.9664860422</v>
       </c>
       <c r="AE2" t="n">
-        <v>133613.6861966767</v>
+        <v>171356.110855267</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.258230521652654e-06</v>
+        <v>7.944497040941344e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.405092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>120861.7835140879</v>
+        <v>155002.1241351</v>
       </c>
     </row>
     <row r="3">
@@ -8874,28 +8874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.59260300288365</v>
+        <v>109.0961335103869</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.9527960920686</v>
+        <v>149.270142850575</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.1229152019161</v>
+        <v>135.0240099189181</v>
       </c>
       <c r="AD3" t="n">
-        <v>90592.60300288365</v>
+        <v>109096.1335103869</v>
       </c>
       <c r="AE3" t="n">
-        <v>123952.7960920686</v>
+        <v>149270.142850575</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.596309374607424e-06</v>
+        <v>8.575244116104764e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.007716049382717</v>
       </c>
       <c r="AH3" t="n">
-        <v>112122.9152019161</v>
+        <v>135024.0099189181</v>
       </c>
     </row>
   </sheetData>
@@ -15352,28 +15352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.6860043786026</v>
+        <v>104.6197391801388</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.6076155073623</v>
+        <v>143.1453426433525</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.2878711502044</v>
+        <v>129.4837520472598</v>
       </c>
       <c r="AD2" t="n">
-        <v>86686.00437860261</v>
+        <v>104619.7391801388</v>
       </c>
       <c r="AE2" t="n">
-        <v>118607.6155073623</v>
+        <v>143145.3426433525</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.627048151134531e-06</v>
+        <v>8.89798518227041e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.146604938271604</v>
       </c>
       <c r="AH2" t="n">
-        <v>107287.8711502044</v>
+        <v>129483.7520472598</v>
       </c>
     </row>
     <row r="3">
@@ -15458,28 +15458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.45005695260714</v>
+        <v>104.3837917541434</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.2847818298497</v>
+        <v>142.8225089658399</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.9958482657735</v>
+        <v>129.191729162829</v>
       </c>
       <c r="AD3" t="n">
-        <v>86450.05695260715</v>
+        <v>104383.7917541434</v>
       </c>
       <c r="AE3" t="n">
-        <v>118284.7818298497</v>
+        <v>142822.5089658399</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.653214421005038e-06</v>
+        <v>8.948303889571084e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.11574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>106995.8482657735</v>
+        <v>129191.729162829</v>
       </c>
     </row>
   </sheetData>
@@ -15755,28 +15755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.70772978828491</v>
+        <v>104.9139300385925</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.0596323531471</v>
+        <v>143.5478675546733</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.65113410754593</v>
+        <v>129.8478605459916</v>
       </c>
       <c r="AD2" t="n">
-        <v>79707.72978828491</v>
+        <v>104913.9300385925</v>
       </c>
       <c r="AE2" t="n">
-        <v>109059.6323531471</v>
+        <v>143547.8675546733</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.458396854751498e-06</v>
+        <v>9.195886326976225e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.733024691358025</v>
       </c>
       <c r="AH2" t="n">
-        <v>98651.13410754593</v>
+        <v>129847.8605459916</v>
       </c>
     </row>
   </sheetData>
@@ -16052,28 +16052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.335016788542</v>
+        <v>177.1510355536754</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.5902699321898</v>
+        <v>242.3858621965371</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.3507775036397</v>
+        <v>219.2528956992641</v>
       </c>
       <c r="AD2" t="n">
-        <v>147335.016788542</v>
+        <v>177151.0355536754</v>
       </c>
       <c r="AE2" t="n">
-        <v>201590.2699321898</v>
+        <v>242385.8621965371</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.244484920106222e-06</v>
+        <v>5.700432016913153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.585648148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>182350.7775036397</v>
+        <v>219252.8956992641</v>
       </c>
     </row>
     <row r="3">
@@ -16158,28 +16158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.2902836702622</v>
+        <v>130.1108251191877</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.9040317815024</v>
+        <v>178.023371012484</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.5019627834558</v>
+        <v>161.0330703404728</v>
       </c>
       <c r="AD3" t="n">
-        <v>110290.2836702622</v>
+        <v>130110.8251191877</v>
       </c>
       <c r="AE3" t="n">
-        <v>150904.0317815024</v>
+        <v>178023.371012484</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.056714012223916e-06</v>
+        <v>7.127486491132876e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.266203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>136501.9627834558</v>
+        <v>161033.0703404728</v>
       </c>
     </row>
     <row r="4">
@@ -16264,28 +16264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.77633301813323</v>
+        <v>121.4216700741234</v>
       </c>
       <c r="AB4" t="n">
-        <v>125.5724277214148</v>
+        <v>166.134485741367</v>
       </c>
       <c r="AC4" t="n">
-        <v>113.5879714617253</v>
+        <v>150.2788435934721</v>
       </c>
       <c r="AD4" t="n">
-        <v>91776.33301813323</v>
+        <v>121421.6700741234</v>
       </c>
       <c r="AE4" t="n">
-        <v>125572.4277214148</v>
+        <v>166134.485741367</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.332405493603562e-06</v>
+        <v>7.611865548501186e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.934413580246914</v>
       </c>
       <c r="AH4" t="n">
-        <v>113587.9714617253</v>
+        <v>150278.8435934721</v>
       </c>
     </row>
     <row r="5">
@@ -16370,28 +16370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>91.37257172570384</v>
+        <v>121.017908781694</v>
       </c>
       <c r="AB5" t="n">
-        <v>125.0199837084222</v>
+        <v>165.5820417283743</v>
       </c>
       <c r="AC5" t="n">
-        <v>113.0882519299724</v>
+        <v>149.7791240617192</v>
       </c>
       <c r="AD5" t="n">
-        <v>91372.57172570383</v>
+        <v>121017.908781694</v>
       </c>
       <c r="AE5" t="n">
-        <v>125019.9837084222</v>
+        <v>165582.0417283743</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.34758320425215e-06</v>
+        <v>7.638532187383831e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.915123456790123</v>
       </c>
       <c r="AH5" t="n">
-        <v>113088.2519299724</v>
+        <v>149779.1240617192</v>
       </c>
     </row>
   </sheetData>
@@ -16667,28 +16667,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.7544703241695</v>
+        <v>230.6155052132391</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.6304376738184</v>
+        <v>315.5383082706491</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.8516730959128</v>
+        <v>285.4237749901889</v>
       </c>
       <c r="AD2" t="n">
-        <v>189754.4703241695</v>
+        <v>230615.5052132391</v>
       </c>
       <c r="AE2" t="n">
-        <v>259630.4376738184</v>
+        <v>315538.3082706491</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.747714664616069e-06</v>
+        <v>4.698285864589043e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.496141975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>234851.6730959128</v>
+        <v>285423.7749901889</v>
       </c>
     </row>
     <row r="3">
@@ -16773,28 +16773,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.7069236127553</v>
+        <v>158.4806439300015</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.7342469187351</v>
+        <v>216.8402086974932</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.0578556339156</v>
+        <v>196.145283516611</v>
       </c>
       <c r="AD3" t="n">
-        <v>127706.9236127553</v>
+        <v>158480.6439300015</v>
       </c>
       <c r="AE3" t="n">
-        <v>174734.2469187351</v>
+        <v>216840.2086974932</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.616183807387525e-06</v>
+        <v>6.183271314446526e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.694444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>158057.8556339156</v>
+        <v>196145.283516611</v>
       </c>
     </row>
     <row r="4">
@@ -16879,28 +16879,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.6888998253477</v>
+        <v>137.2048028787296</v>
       </c>
       <c r="AB4" t="n">
-        <v>159.6589006919079</v>
+        <v>187.7296643472951</v>
       </c>
       <c r="AC4" t="n">
-        <v>144.4212792925907</v>
+        <v>169.8130086622809</v>
       </c>
       <c r="AD4" t="n">
-        <v>116688.8998253477</v>
+        <v>137204.8028787296</v>
       </c>
       <c r="AE4" t="n">
-        <v>159658.9006919079</v>
+        <v>187729.6643472951</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.94643694729699e-06</v>
+        <v>6.74796737949067e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.219907407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>144421.2792925907</v>
+        <v>169813.0086622809</v>
       </c>
     </row>
     <row r="5">
@@ -16985,28 +16985,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>99.95483462895511</v>
+        <v>130.6432140916297</v>
       </c>
       <c r="AB5" t="n">
-        <v>136.7626144353621</v>
+        <v>178.7518090919226</v>
       </c>
       <c r="AC5" t="n">
-        <v>123.7101824612227</v>
+        <v>161.6919873119793</v>
       </c>
       <c r="AD5" t="n">
-        <v>99954.83462895511</v>
+        <v>130643.2140916298</v>
       </c>
       <c r="AE5" t="n">
-        <v>136762.6144353621</v>
+        <v>178751.8090919226</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.126482824283353e-06</v>
+        <v>7.055825764393515e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.992283950617284</v>
       </c>
       <c r="AH5" t="n">
-        <v>123710.1824612227</v>
+        <v>161691.9873119793</v>
       </c>
     </row>
     <row r="6">
@@ -17091,28 +17091,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>97.77509118415631</v>
+        <v>128.463470646831</v>
       </c>
       <c r="AB6" t="n">
-        <v>133.780193290696</v>
+        <v>175.7693879472564</v>
       </c>
       <c r="AC6" t="n">
-        <v>121.0123994047482</v>
+        <v>158.9942042555048</v>
       </c>
       <c r="AD6" t="n">
-        <v>97775.09118415631</v>
+        <v>128463.4706468309</v>
       </c>
       <c r="AE6" t="n">
-        <v>133780.193290696</v>
+        <v>175769.3879472564</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.182637067565195e-06</v>
+        <v>7.151843262442075e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.922839506172839</v>
       </c>
       <c r="AH6" t="n">
-        <v>121012.3994047482</v>
+        <v>158994.2042555048</v>
       </c>
     </row>
   </sheetData>
@@ -17388,28 +17388,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.71608181462688</v>
+        <v>110.0446158688477</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.2805246653678</v>
+        <v>150.5678982575089</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.0874359955857</v>
+        <v>136.1979093712257</v>
       </c>
       <c r="AD2" t="n">
-        <v>85716.08181462687</v>
+        <v>110044.6158688477</v>
       </c>
       <c r="AE2" t="n">
-        <v>117280.5246653678</v>
+        <v>150567.8982575089</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.100415555333046e-06</v>
+        <v>8.789079147371359e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.454475308641975</v>
       </c>
       <c r="AH2" t="n">
-        <v>106087.4359955857</v>
+        <v>136197.9093712257</v>
       </c>
     </row>
   </sheetData>
@@ -17685,28 +17685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.0086340464656</v>
+        <v>132.1433659717034</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.3092016394055</v>
+        <v>180.8043830762684</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.727411167198</v>
+        <v>163.5486665160654</v>
       </c>
       <c r="AD2" t="n">
-        <v>104008.6340464656</v>
+        <v>132143.3659717034</v>
       </c>
       <c r="AE2" t="n">
-        <v>142309.2016394055</v>
+        <v>180804.3830762684</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.05354383778538e-06</v>
+        <v>7.468381049206224e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.594135802469136</v>
       </c>
       <c r="AH2" t="n">
-        <v>128727.411167198</v>
+        <v>163548.6665160654</v>
       </c>
     </row>
     <row r="3">
@@ -17791,28 +17791,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.91969899144752</v>
+        <v>110.9690900621137</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.4543903189924</v>
+        <v>151.8328046336577</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.6264625412139</v>
+        <v>137.3420948581426</v>
       </c>
       <c r="AD3" t="n">
-        <v>82919.69899144751</v>
+        <v>110969.0900621137</v>
       </c>
       <c r="AE3" t="n">
-        <v>113454.3903189924</v>
+        <v>151832.8046336577</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.558590756082371e-06</v>
+        <v>8.398895923230627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.976851851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>102626.4625412139</v>
+        <v>137342.0948581425</v>
       </c>
     </row>
   </sheetData>
@@ -18088,28 +18088,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.5733721906446</v>
+        <v>162.6294135673307</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.7609806724446</v>
+        <v>222.516738346083</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.3185291837652</v>
+        <v>201.2800531426005</v>
       </c>
       <c r="AD2" t="n">
-        <v>133573.3721906446</v>
+        <v>162629.4135673307</v>
       </c>
       <c r="AE2" t="n">
-        <v>182760.9806724447</v>
+        <v>222516.738346083</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.526133032775123e-06</v>
+        <v>6.299179331926948e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.19212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>165318.5291837652</v>
+        <v>201280.0531426005</v>
       </c>
     </row>
     <row r="3">
@@ -18194,28 +18194,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.5250643682228</v>
+        <v>120.9526823585783</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.9110720382741</v>
+        <v>165.4927960586809</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.6535942858926</v>
+        <v>149.6983958734842</v>
       </c>
       <c r="AD3" t="n">
-        <v>101525.0643682228</v>
+        <v>120952.6823585783</v>
       </c>
       <c r="AE3" t="n">
-        <v>138911.0720382741</v>
+        <v>165492.7960586809</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.303932357586047e-06</v>
+        <v>7.688661063244308e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.073302469135802</v>
       </c>
       <c r="AH3" t="n">
-        <v>125653.5942858926</v>
+        <v>149698.3958734842</v>
       </c>
     </row>
     <row r="4">
@@ -18300,28 +18300,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.25725912461893</v>
+        <v>117.313210992754</v>
       </c>
       <c r="AB4" t="n">
-        <v>120.7574755697278</v>
+        <v>160.5131107738177</v>
       </c>
       <c r="AC4" t="n">
-        <v>109.232551585566</v>
+        <v>145.1939647631746</v>
       </c>
       <c r="AD4" t="n">
-        <v>88257.25912461893</v>
+        <v>117313.210992754</v>
       </c>
       <c r="AE4" t="n">
-        <v>120757.4755697278</v>
+        <v>160513.1107738178</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.435527717081418e-06</v>
+        <v>7.923746569379722e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.922839506172839</v>
       </c>
       <c r="AH4" t="n">
-        <v>109232.551585566</v>
+        <v>145193.9647631746</v>
       </c>
     </row>
   </sheetData>
